--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Group\RPA\Ui Path Code\Alexandra\PRC_Recharges_Performer_VodafoneEquipment\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98672C4-1853-4DA4-8DF8-11B386B71B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB8C690-92AB-4AF1-A22C-75F18F04667D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4536" yWindow="4764" windowWidth="13824" windowHeight="8028" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="136">
   <si>
     <t>Name</t>
   </si>
@@ -190,9 +190,6 @@
     <t>Tenant ID</t>
   </si>
   <si>
-    <t>Asset_MAIL_MailAccountUsed</t>
-  </si>
-  <si>
     <t>Recharges_MAIL_strMailAccountUsed</t>
   </si>
   <si>
@@ -208,21 +205,6 @@
     <t>Mail</t>
   </si>
   <si>
-    <t>MailSubject_MissingCC</t>
-  </si>
-  <si>
-    <t>Recharges_MAIL_TO_MissingCC</t>
-  </si>
-  <si>
-    <t>Asset_MAIL_TO_MissingCC</t>
-  </si>
-  <si>
-    <t>Recharges_MAIL_CC_MissingCC</t>
-  </si>
-  <si>
-    <t>Asset_MAIL_CC_MissingCC</t>
-  </si>
-  <si>
     <t>Active List</t>
   </si>
   <si>
@@ -271,9 +253,6 @@
     <t>Header</t>
   </si>
   <si>
-    <t>VodafoneHeaderSheetName</t>
-  </si>
-  <si>
     <t>CopyColumnDataInRange</t>
   </si>
   <si>
@@ -316,10 +295,157 @@
     <t>Recharges Performer Vodafone Equipment</t>
   </si>
   <si>
-    <t>Recharges Automation - Vodafone Equipment - Missing CC for Employee IDs</t>
-  </si>
-  <si>
     <t>VodafoneWorkingsReadRange</t>
+  </si>
+  <si>
+    <t>Recharges_MAIL_CC</t>
+  </si>
+  <si>
+    <t>Recharges_Mail_To</t>
+  </si>
+  <si>
+    <t>Recharges_Mail_Account</t>
+  </si>
+  <si>
+    <t>ExcludeSpecificValueInPivot</t>
+  </si>
+  <si>
+    <t>vbaExcludeSpecificValueInPivot</t>
+  </si>
+  <si>
+    <t>VodafonePivotByCCRange</t>
+  </si>
+  <si>
+    <t>A5:B9999</t>
+  </si>
+  <si>
+    <t>Recharges Automation - Vodafone Equipment - Journal {0}</t>
+  </si>
+  <si>
+    <t>Asset_MAIL_TO</t>
+  </si>
+  <si>
+    <t>Asset_MAIL_CC</t>
+  </si>
+  <si>
+    <t>MailSubject_Journal</t>
+  </si>
+  <si>
+    <t>JournalTextHeaderRange</t>
+  </si>
+  <si>
+    <t>F13</t>
+  </si>
+  <si>
+    <t>PreparedByRange</t>
+  </si>
+  <si>
+    <t>F15</t>
+  </si>
+  <si>
+    <t>DatePreparedRange</t>
+  </si>
+  <si>
+    <t>H15</t>
+  </si>
+  <si>
+    <t>DateAuthorizedRange</t>
+  </si>
+  <si>
+    <t>H16</t>
+  </si>
+  <si>
+    <t>DatePostedRange</t>
+  </si>
+  <si>
+    <t>H17</t>
+  </si>
+  <si>
+    <t>FinancialYearRange</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>DocumentDateRange</t>
+  </si>
+  <si>
+    <t>B13</t>
+  </si>
+  <si>
+    <t>PostingDateRange</t>
+  </si>
+  <si>
+    <t>B14</t>
+  </si>
+  <si>
+    <t>PostingPeriodRange</t>
+  </si>
+  <si>
+    <t>B16</t>
+  </si>
+  <si>
+    <t>HeaderSheetName</t>
+  </si>
+  <si>
+    <t>RPA Processing Site API Key</t>
+  </si>
+  <si>
+    <t>Recharges_SaveScreenshotLocation</t>
+  </si>
+  <si>
+    <t>InsertPicture</t>
+  </si>
+  <si>
+    <t>vbaInsertPicture</t>
+  </si>
+  <si>
+    <t>VodafoneBackupSheetName</t>
+  </si>
+  <si>
+    <t>Back-up</t>
+  </si>
+  <si>
+    <t>VodafoneBackupRange</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>VodafonePivotByCCCaptureRange</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Recharges_VodafoneTracker_SharepointURL</t>
+  </si>
+  <si>
+    <t>VodafoneTrackerSheetName</t>
+  </si>
+  <si>
+    <t>Vodafone</t>
+  </si>
+  <si>
+    <t>Vodafone Tracker</t>
+  </si>
+  <si>
+    <t>SetPivotTableRange</t>
+  </si>
+  <si>
+    <t>vbaSetPivotTableRange</t>
+  </si>
+  <si>
+    <t>VodafonePivotCCName</t>
+  </si>
+  <si>
+    <t>Cost Centre linked to employee no. on Vodafone Bill - to be recharged</t>
+  </si>
+  <si>
+    <t>PreparedByName</t>
+  </si>
+  <si>
+    <t>Robot</t>
   </si>
 </sst>
 </file>
@@ -709,10 +835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1004"/>
+  <dimension ref="A1:Z1018"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -762,7 +888,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -783,7 +909,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>22</v>
@@ -802,7 +928,7 @@
         <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
@@ -815,10 +941,10 @@
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
@@ -831,189 +957,333 @@
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A17" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A17" s="2" t="s">
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A28" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A30" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A31" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A32" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A33" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A34" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A35" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A36" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A37" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A40" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+    </row>
+    <row r="41" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A42" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="44" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A44" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+    </row>
+    <row r="45" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A45" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" t="s">
         <v>93</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="46" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="47" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A47" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+    </row>
+    <row r="48" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A48" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A18" s="2" t="s">
+    <row r="49" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A49" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" t="s">
         <v>64</v>
       </c>
-      <c r="B18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A20" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A21" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="50" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A50" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A51" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A23" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A26" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-    </row>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A27" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A30" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-    </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="33" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A33" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A34" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A35" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A36" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="38" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="39" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="40" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="41" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="42" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="43" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="44" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="45" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="46" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="47" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="48" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="52" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A52" t="s">
+        <v>119</v>
+      </c>
+      <c r="B52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A53" t="s">
+        <v>131</v>
+      </c>
+      <c r="B53" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A54" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+    </row>
+    <row r="55" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A55" t="s">
+        <v>127</v>
+      </c>
+      <c r="B55" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="57" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="58" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="59" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="60" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="61" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="62" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="63" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="64" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="65" ht="14.25" customHeight="1"/>
     <row r="66" ht="14.25" customHeight="1"/>
     <row r="67" ht="14.25" customHeight="1"/>
@@ -1954,6 +2224,20 @@
     <row r="1002" ht="14.25" customHeight="1"/>
     <row r="1003" ht="14.25" customHeight="1"/>
     <row r="1004" ht="14.25" customHeight="1"/>
+    <row r="1005" ht="14.25" customHeight="1"/>
+    <row r="1006" ht="14.25" customHeight="1"/>
+    <row r="1007" ht="14.25" customHeight="1"/>
+    <row r="1008" ht="14.25" customHeight="1"/>
+    <row r="1009" ht="14.25" customHeight="1"/>
+    <row r="1010" ht="14.25" customHeight="1"/>
+    <row r="1011" ht="14.25" customHeight="1"/>
+    <row r="1012" ht="14.25" customHeight="1"/>
+    <row r="1013" ht="14.25" customHeight="1"/>
+    <row r="1014" ht="14.25" customHeight="1"/>
+    <row r="1015" ht="14.25" customHeight="1"/>
+    <row r="1016" ht="14.25" customHeight="1"/>
+    <row r="1017" ht="14.25" customHeight="1"/>
+    <row r="1018" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3129,7 +3413,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -3186,30 +3470,44 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
         <v>50</v>
-      </c>
-      <c r="B3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+    </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Group\RPA\Ui Path Code\Alexandra\PRC_Recharges_Performer_VodafoneEquipment\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB8C690-92AB-4AF1-A22C-75F18F04667D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0087C8B-BC2E-4620-A736-1DAC11662FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="138">
   <si>
     <t>Name</t>
   </si>
@@ -446,6 +446,12 @@
   </si>
   <si>
     <t>Robot</t>
+  </si>
+  <si>
+    <t>C:\Users\{0}\Downloads</t>
+  </si>
+  <si>
+    <t>DownloadsPath</t>
   </si>
 </sst>
 </file>
@@ -837,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1018"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1275,7 +1281,14 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="56" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A56" t="s">
+        <v>137</v>
+      </c>
+      <c r="B56" t="s">
+        <v>136</v>
+      </c>
+    </row>
     <row r="57" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="58" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="59" spans="1:3" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Group\RPA\Ui Path Code\Alexandra\PRC_Recharges_Performer_VodafoneEquipment\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0087C8B-BC2E-4620-A736-1DAC11662FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4DEA4F-8CE4-402C-8582-96C6544B3069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="141">
   <si>
     <t>Name</t>
   </si>
@@ -452,6 +452,15 @@
   </si>
   <si>
     <t>DownloadsPath</t>
+  </si>
+  <si>
+    <t>OrchestratorDefaultFolder</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Recharges_SharePoint_TenentID</t>
   </si>
 </sst>
 </file>
@@ -843,16 +852,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1018"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.5234375" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="81.41796875" customWidth="1"/>
+    <col min="4" max="26" width="8.68359375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -909,7 +918,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" t="s">
+        <v>139</v>
+      </c>
+    </row>
     <row r="5" spans="1:26" ht="28.8">
       <c r="A5" t="s">
         <v>20</v>
@@ -2266,12 +2282,12 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="75.41796875" customWidth="1"/>
+    <col min="4" max="26" width="8.68359375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -2319,7 +2335,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="28.8">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -3425,16 +3441,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.89453125" customWidth="1"/>
+    <col min="2" max="2" width="30.1015625" customWidth="1"/>
+    <col min="3" max="3" width="60.3125" customWidth="1"/>
+    <col min="4" max="26" width="65.41796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -3521,7 +3537,17 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>139</v>
+      </c>
+    </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Group\RPA\Ui Path Code\Alexandra\PRC_Recharges_Performer_VodafoneEquipment\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4DEA4F-8CE4-402C-8582-96C6544B3069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DD8956-A95D-4175-B815-A0EB80702302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="144">
   <si>
     <t>Name</t>
   </si>
@@ -461,6 +461,15 @@
   </si>
   <si>
     <t>Recharges_SharePoint_TenentID</t>
+  </si>
+  <si>
+    <t>Recharges_VodafoneEquipment_OrderTracker</t>
+  </si>
+  <si>
+    <t>Recharges_VodafoneEquipment_OrderTracker_Subfolder</t>
+  </si>
+  <si>
+    <t>IT Service Delivery Team Site URL</t>
   </si>
 </sst>
 </file>
@@ -856,12 +865,12 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5234375" customWidth="1"/>
+    <col min="1" max="1" width="43.5546875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.41796875" customWidth="1"/>
-    <col min="4" max="26" width="8.68359375" customWidth="1"/>
+    <col min="3" max="3" width="81.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -2282,12 +2291,12 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.41796875" customWidth="1"/>
-    <col min="4" max="26" width="8.68359375" customWidth="1"/>
+    <col min="3" max="3" width="75.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -2335,7 +2344,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="28.8">
+    <row r="3" spans="1:26" ht="43.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -3442,15 +3451,15 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.89453125" customWidth="1"/>
-    <col min="2" max="2" width="30.1015625" customWidth="1"/>
-    <col min="3" max="3" width="60.3125" customWidth="1"/>
-    <col min="4" max="26" width="65.41796875" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" customWidth="1"/>
+    <col min="4" max="26" width="65.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -3548,9 +3557,30 @@
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" t="s">
+        <v>143</v>
+      </c>
+    </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
